--- a/src/test/resources/testdata/EasyQuoteL1.xlsx
+++ b/src/test/resources/testdata/EasyQuoteL1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="172">
   <si>
     <t>Source</t>
   </si>
@@ -200,12 +200,374 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>500.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>525.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>15.75</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>31.5</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>51.45</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>58.8</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>7.2</t>
+  </si>
+  <si>
+    <t>151.2</t>
+  </si>
+  <si>
+    <t>1072.0</t>
+  </si>
+  <si>
+    <t>53.6</t>
+  </si>
+  <si>
+    <t>1125.6</t>
+  </si>
+  <si>
+    <t>1040.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>1092.0</t>
+  </si>
+  <si>
+    <t>864.0</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>907.2</t>
+  </si>
+  <si>
+    <t>9600.0</t>
+  </si>
+  <si>
+    <t>480.0</t>
+  </si>
+  <si>
+    <t>10080.0</t>
+  </si>
+  <si>
+    <t>250.0</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>262.5</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>315.0</t>
+  </si>
+  <si>
+    <t>600.0</t>
+  </si>
+  <si>
+    <t>630.0</t>
+  </si>
+  <si>
+    <t>1200.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>1260.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>138.6</t>
+  </si>
+  <si>
+    <t>516.0</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>541.8</t>
+  </si>
+  <si>
+    <t>1796.4</t>
+  </si>
+  <si>
+    <t>89.82</t>
+  </si>
+  <si>
+    <t>1886.22</t>
+  </si>
+  <si>
+    <t>2495.0</t>
+  </si>
+  <si>
+    <t>124.75</t>
+  </si>
+  <si>
+    <t>2619.75</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>47.25</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>78.0</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>81.9</t>
+  </si>
+  <si>
+    <t>276.0</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>289.8</t>
+  </si>
+  <si>
+    <t>2430.0</t>
+  </si>
+  <si>
+    <t>121.5</t>
+  </si>
+  <si>
+    <t>2551.5</t>
+  </si>
+  <si>
+    <t>59.36</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>62.33</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 2.97
+Actual : 2.968</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 62.33
+Actual : 62.328</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 45.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 2.25
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 47.25
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 20.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 1.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 21.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 40.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 2.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 42.0
+Actual : 0.0</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 0.0
+Actual : 80.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 0.0
+Actual : 4.0</t>
+  </si>
+  <si>
+    <t>Fail
+Expected : 0.0
+Actual : 84.0</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -656,10 +1018,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="11.5703125" style="10" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="6" style="10" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30">
@@ -734,17 +1096,39 @@
       <c r="F2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -765,17 +1149,39 @@
       <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -796,17 +1202,39 @@
       <c r="F4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -827,17 +1255,39 @@
       <c r="F5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -858,17 +1308,39 @@
       <c r="F6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -889,17 +1361,39 @@
       <c r="F7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -920,17 +1414,39 @@
       <c r="F8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -951,17 +1467,39 @@
       <c r="F9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" customHeight="1">
       <c r="A10" s="7" t="s">
@@ -982,17 +1520,39 @@
       <c r="F10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="28.5" customHeight="1">
       <c r="A11" s="7" t="s">
@@ -1013,17 +1573,39 @@
       <c r="F11" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="28.5" customHeight="1">
       <c r="A12" s="7" t="s">
@@ -1044,17 +1626,39 @@
       <c r="F12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="28.5" customHeight="1">
       <c r="A13" s="7" t="s">
@@ -1075,17 +1679,39 @@
       <c r="F13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="28.5" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1106,17 +1732,39 @@
       <c r="F14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="28.5" customHeight="1">
       <c r="A15" s="7" t="s">
@@ -1137,17 +1785,39 @@
       <c r="F15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1170,9 +1840,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30">
@@ -1253,17 +1923,39 @@
       <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -1287,17 +1979,39 @@
       <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="28.5" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -1321,17 +2035,39 @@
       <c r="G4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -1355,17 +2091,39 @@
       <c r="G5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -1389,17 +2147,39 @@
       <c r="G6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="28.5" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -1423,17 +2203,39 @@
       <c r="G7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -1457,17 +2259,39 @@
       <c r="G8" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -1491,17 +2315,39 @@
       <c r="G9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -1525,17 +2371,39 @@
       <c r="G10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:18" ht="28.5" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -1559,17 +2427,39 @@
       <c r="G11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:18" ht="28.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -1593,17 +2483,39 @@
       <c r="G12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:18" ht="28.5" customHeight="1">
       <c r="A13" s="3" t="s">
@@ -1627,17 +2539,39 @@
       <c r="G13" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R13" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="28.5" customHeight="1">
       <c r="A14" s="3" t="s">
@@ -1661,17 +2595,39 @@
       <c r="G14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="28.5" customHeight="1">
       <c r="A15" s="3" t="s">
@@ -1695,17 +2651,39 @@
       <c r="G15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="28.5" customHeight="1">
       <c r="A16" s="3" t="s">
@@ -1729,17 +2707,39 @@
       <c r="G16" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="17" spans="1:18" ht="28.5" customHeight="1">
       <c r="A17" s="3" t="s">
@@ -1763,17 +2763,39 @@
       <c r="G17" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="18" spans="1:18" ht="28.5" customHeight="1">
       <c r="A18" s="3" t="s">
@@ -1797,17 +2819,39 @@
       <c r="G18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R18" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="19" spans="1:18" ht="28.5" customHeight="1">
       <c r="A19" s="7" t="s">
@@ -1831,17 +2875,39 @@
       <c r="G19" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R19" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:18" ht="28.5" customHeight="1">
       <c r="A20" s="3" t="s">
@@ -1865,17 +2931,39 @@
       <c r="G20" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:18" ht="28.5" customHeight="1">
       <c r="A21" s="3" t="s">
@@ -1899,17 +2987,39 @@
       <c r="G21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q21" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="22" spans="1:18" ht="28.5" customHeight="1">
       <c r="A22" s="3" t="s">
@@ -1933,17 +3043,39 @@
       <c r="G22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R22" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1966,10 +3098,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="30">
@@ -2050,17 +3182,39 @@
       <c r="G2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -2084,17 +3238,39 @@
       <c r="G3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -2118,17 +3294,39 @@
       <c r="G4" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="28.5" customHeight="1">
       <c r="A5" s="3" t="s">
@@ -2152,17 +3350,39 @@
       <c r="G5" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="28.5" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -2186,17 +3406,39 @@
       <c r="G6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="28.5" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -2217,20 +3459,42 @@
       <c r="F7" s="3">
         <v>13</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
+      <c r="G7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="28.5" customHeight="1">
       <c r="A8" s="7" t="s">
@@ -2251,20 +3515,42 @@
       <c r="F8" s="3">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
+      <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="28.5" customHeight="1">
       <c r="A9" s="7" t="s">
@@ -2285,20 +3571,42 @@
       <c r="F9" s="3">
         <v>45</v>
       </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
+      <c r="G9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -2319,20 +3627,42 @@
       <c r="F10" s="3">
         <v>8.48</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
+      <c r="G10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2355,10 +3685,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="11.5703125" style="10" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="20.42578125" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="4" max="6" style="10" width="11.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30">
@@ -2424,8 +3754,8 @@
       <c r="C2" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="9">
-        <v>12</v>
+      <c r="D2" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>58</v>
@@ -2433,17 +3763,39 @@
       <c r="F2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="3" spans="1:17" ht="28.5" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -2455,26 +3807,48 @@
       <c r="C3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="9">
-        <v>10</v>
-      </c>
-      <c r="E3" s="12">
-        <v>5</v>
+      <c r="D3" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="4" spans="1:17" ht="28.5" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -2486,8 +3860,8 @@
       <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="9">
-        <v>8</v>
+      <c r="D4" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>59</v>
@@ -2495,17 +3869,39 @@
       <c r="F4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:17" ht="28.5" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -2517,26 +3913,48 @@
       <c r="C5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="9">
-        <v>6</v>
-      </c>
-      <c r="E5" s="12">
-        <v>5</v>
+      <c r="D5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:17" ht="28.5" customHeight="1">
       <c r="A6" s="3" t="s">
@@ -2548,8 +3966,8 @@
       <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9">
-        <v>4</v>
+      <c r="D6" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>60</v>
@@ -2557,17 +3975,39 @@
       <c r="F6" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="28.5" customHeight="1">
       <c r="A7" s="3" t="s">
@@ -2579,26 +4019,48 @@
       <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="D7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:17" ht="28.5" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -2610,26 +4072,48 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="9">
-        <v>8</v>
+      <c r="D8" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="F8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:17" ht="28.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -2641,26 +4125,48 @@
       <c r="C9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="9">
-        <v>6</v>
-      </c>
-      <c r="E9" s="12">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
+      <c r="D9" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="28.5" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -2672,8 +4178,8 @@
       <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="9">
-        <v>4</v>
+      <c r="D10" s="9" t="s">
+        <v>167</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>60</v>
@@ -2681,17 +4187,39 @@
       <c r="F10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="28.5" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -2703,26 +4231,48 @@
       <c r="C11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12">
-        <v>5</v>
+      <c r="D11" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
